--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayon/IdeaProjects/WikiTests/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayon/IdeaProjects/Wikipedia-Integration-Tests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2450AB-2769-B545-8924-6C2D0CE3E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B9DD0-F3F3-C94D-8C7E-A2A6EA96B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="14680" xr2:uid="{A63AD888-DD79-2848-BB89-ADFB2750F34E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Apollo 11</t>
   </si>
   <si>
-    <t>Sputnik 1</t>
+    <t>Skylab</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayon/IdeaProjects/Wikipedia-Integration-Tests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B9DD0-F3F3-C94D-8C7E-A2A6EA96B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73510A51-DBBC-6249-BADB-462351BCD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="14680" xr2:uid="{A63AD888-DD79-2848-BB89-ADFB2750F34E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Apollo 11</t>
   </si>
   <si>
-    <t>Skylab</t>
+    <t>Skylab 1</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayon/IdeaProjects/Wikipedia-Integration-Tests/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73510A51-DBBC-6249-BADB-462351BCD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3828D4D4-7735-DB4C-9CA5-C7A7F67370DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="14680" xr2:uid="{A63AD888-DD79-2848-BB89-ADFB2750F34E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Apollo 11</t>
   </si>
   <si>
-    <t>Skylab 1</t>
+    <t>Skylab</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
